--- a/excel/game_scores.xlsx
+++ b/excel/game_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,76 @@
         <v>116</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240713-211810.png</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240713-212021.png</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240713-212129.png</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240713-214041.png</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240713-215840.png</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240713-215947.png</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240713-220054.png</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/game_scores.xlsx
+++ b/excel/game_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,166 @@
         <v>53</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240713-234946.png</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-000050.png</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-000341.png</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-001913.png</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-002019.png</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-002138.png</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-002309.png</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-002851.png</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-005014.png</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-005124.png</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-005320.png</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-005449.png</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-005816.png</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-010859.png</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-011315.png</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-011814.png</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/game_scores.xlsx
+++ b/excel/game_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,6 +685,1666 @@
         <v>6</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-013237.png</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-020257.png</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-020637.png</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-021738.png</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-022316.png</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-023233.png</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-024108.png</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-024735.png</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-025401.png</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-025600.png</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-025709.png</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-030102.png</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-030119.png</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-030530.png</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-030630.png</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-030647.png</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-030706.png</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-030848.png</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-031250.png</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-031327.png</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-032113.png</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-032133.png</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-032320.png</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-032343.png</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-091014.png</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-091033.png</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-091146.png</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-091937.png</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-091956.png</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-094850.png</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-094910.png</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-094930.png</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-094947.png</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-095004.png</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-095023.png</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-095137.png</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-095639.png</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-095800.png</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-095909.png</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-100547.png</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-100709.png</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-100817.png</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-101104.png</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-101444.png</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-102919.png</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-103124.png</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-103449.png</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-103834.png</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-103914.png</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-104050.png</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-104825.png</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-105029.png</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-105148.png</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-105801.png</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-105928.png</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-112905.png</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-113221.png</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-113312.png</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-114248.png</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-114338.png</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-114426.png</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-114626.png</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-114719.png</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-115355.png</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-115507.png</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-115602.png</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-115714.png</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-115759.png</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-115846.png</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-115949.png</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-120836.png</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-120916.png</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-121001.png</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-121049.png</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-121206.png</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-121723.png</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-121805.png</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-121855.png</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-121931.png</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-122048.png</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-122145.png</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-130610.png</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-130658.png</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-130820.png</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-130949.png</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-131138.png</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-131219.png</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-131302.png</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-131344.png</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-131546.png</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-132111.png</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-132155.png</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-132241.png</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-132323.png</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-133841.png</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-134350.png</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-134439.png</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-134523.png</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-134612.png</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-134710.png</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-134811.png</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-134926.png</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-135206.png</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-135351.png</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-135517.png</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-140810.png</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-140946.png</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-141035.png</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-141208.png</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-141309.png</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-141738.png</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-142038.png</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-142151.png</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-142238.png</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-142351.png</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-142450.png</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-142739.png</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-142823.png</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-142928.png</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-143205.png</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-143248.png</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-143341.png</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-143450.png</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-143530.png</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-143730.png</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-143840.png</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-143957.png</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-144330.png</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-144410.png</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-144518.png</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-144702.png</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-144812.png</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-144855.png</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-144940.png</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-145025.png</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-145119.png</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-145250.png</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-145411.png</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-145630.png</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-145741.png</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-145829.png</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-145942.png</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-150032.png</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-150141.png</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-150336.png</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-150634.png</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-150802.png</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240714-151324.png</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240715-143057.png</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-192855.png</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-192957.png</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-193041.png</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-193133.png</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-193221.png</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-193307.png</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-193411.png</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-193504.png</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-193615.png</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-193704.png</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-193755.png</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-194203.png</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-194245.png</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-194514.png</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240717-194845.png</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240718-145714.png</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>./img/player_image_20240718-145754.png</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
